--- a/drishti-tools/upload_forms/examples/7 N.R Kamalakshi Meghalapura.xlsx
+++ b/drishti-tools/upload_forms/examples/7 N.R Kamalakshi Meghalapura.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="4035"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="20550" windowHeight="4035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EC register" sheetId="3" r:id="rId1"/>
@@ -15,12 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EC register'!$B$1:$R$332</definedName>
     <definedName name="House_Hold_Information">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3103" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="659">
   <si>
     <t/>
   </si>
@@ -1271,15 +1271,6 @@
   </si>
   <si>
     <t>Kamala</t>
-  </si>
-  <si>
-    <t>Duddagere</t>
-  </si>
-  <si>
-    <t>Lakshmipura</t>
-  </si>
-  <si>
-    <t>PuttegowdanaHundi</t>
   </si>
   <si>
     <t>95</t>
@@ -2012,6 +2003,12 @@
   </si>
   <si>
     <t>17/08/1993</t>
+  </si>
+  <si>
+    <t>29230040137a</t>
+  </si>
+  <si>
+    <t>29230040112</t>
   </si>
 </sst>
 </file>
@@ -2141,7 +2138,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2149,8 +2146,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2195,8 +2193,14 @@
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 2 2" xfId="3"/>
@@ -2204,6 +2208,7 @@
     <cellStyle name="Normal_ANC" xfId="6"/>
     <cellStyle name="Normal_Sheet1" xfId="1"/>
     <cellStyle name="Normal_Sheet1_1" xfId="5"/>
+    <cellStyle name="Normal_Sheet4" xfId="7"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2502,8 +2507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H341" sqref="H341"/>
+    <sheetView topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2527,63 +2532,66 @@
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" ht="70.5" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>221</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>220</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="M1" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>256</v>
@@ -2610,12 +2618,15 @@
         <v>21</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>256</v>
@@ -2642,12 +2653,15 @@
         <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>256</v>
@@ -2682,7 +2696,10 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>256</v>
@@ -2712,12 +2729,15 @@
         <v>21</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>256</v>
@@ -2744,12 +2764,15 @@
         <v>21</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>256</v>
@@ -2779,12 +2802,15 @@
         <v>21</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>256</v>
@@ -2811,12 +2837,15 @@
         <v>21</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>256</v>
@@ -2843,12 +2872,15 @@
         <v>21</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>256</v>
@@ -2877,7 +2909,10 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>256</v>
@@ -2904,12 +2939,15 @@
         <v>21</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>256</v>
@@ -2936,12 +2974,15 @@
         <v>21</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>256</v>
@@ -2970,7 +3011,10 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>256</v>
@@ -2997,12 +3041,15 @@
         <v>21</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>256</v>
@@ -3034,7 +3081,10 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>256</v>
@@ -3067,12 +3117,15 @@
         <v>21</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>256</v>
@@ -3099,12 +3152,15 @@
         <v>21</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>657</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>256</v>
@@ -3130,7 +3186,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B19" s="2">
         <v>29230040137</v>
@@ -3160,12 +3216,12 @@
         <v>21</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B20" s="2">
         <v>29230040137</v>
@@ -3195,12 +3251,12 @@
         <v>21</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B21" s="2">
         <v>29230040137</v>
@@ -3230,12 +3286,12 @@
         <v>21</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B22" s="2">
         <v>29230040137</v>
@@ -3268,12 +3324,12 @@
         <v>21</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B23" s="2">
         <v>29230040137</v>
@@ -3303,12 +3359,12 @@
         <v>21</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B24" s="2">
         <v>29230040137</v>
@@ -3338,12 +3394,12 @@
         <v>21</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B25" s="2">
         <v>29230040137</v>
@@ -3373,12 +3429,12 @@
         <v>21</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B26" s="2">
         <v>29230040137</v>
@@ -3408,12 +3464,12 @@
         <v>21</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B27" s="2">
         <v>29230040137</v>
@@ -3443,12 +3499,12 @@
         <v>21</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B28" s="2">
         <v>29230040137</v>
@@ -3478,12 +3534,12 @@
         <v>21</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B29" s="2">
         <v>29230040137</v>
@@ -3513,12 +3569,12 @@
         <v>21</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B30" s="2">
         <v>29230040137</v>
@@ -3548,12 +3604,12 @@
         <v>21</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B31" s="2">
         <v>29230040137</v>
@@ -3586,12 +3642,12 @@
         <v>21</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B32" s="2">
         <v>29230040137</v>
@@ -3621,12 +3677,12 @@
         <v>21</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B33" s="2">
         <v>29230040137</v>
@@ -3656,12 +3712,12 @@
         <v>21</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B34" s="2">
         <v>29230040137</v>
@@ -3691,12 +3747,12 @@
         <v>21</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B35" s="2">
         <v>29230040137</v>
@@ -3726,12 +3782,12 @@
         <v>21</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B36" s="2">
         <v>29230040137</v>
@@ -3761,12 +3817,12 @@
         <v>21</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B37" s="2">
         <v>29230040137</v>
@@ -3795,7 +3851,7 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B38" s="2">
         <v>29230040137</v>
@@ -3825,12 +3881,12 @@
         <v>21</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B39" s="2">
         <v>29230040137</v>
@@ -3860,12 +3916,12 @@
         <v>21</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B40" s="2">
         <v>29230040137</v>
@@ -3895,12 +3951,12 @@
         <v>21</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B41" s="2">
         <v>29230040137</v>
@@ -3935,7 +3991,7 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B42" s="2">
         <v>29230040137</v>
@@ -3965,12 +4021,12 @@
         <v>21</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B43" s="2">
         <v>29230040137</v>
@@ -4002,7 +4058,7 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B44" s="2">
         <v>29230040137</v>
@@ -4032,12 +4088,12 @@
         <v>21</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B45" s="2">
         <v>29230040137</v>
@@ -4072,7 +4128,7 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B46" s="2">
         <v>29230040137</v>
@@ -4105,12 +4161,12 @@
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B47" s="2">
         <v>29230040137</v>
@@ -4140,12 +4196,12 @@
         <v>21</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B48" s="2">
         <v>29230040137</v>
@@ -4175,12 +4231,12 @@
         <v>21</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B49" s="2">
         <v>29230040137</v>
@@ -4215,7 +4271,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B50" s="2">
         <v>29230040137</v>
@@ -4245,12 +4301,12 @@
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B51" s="2">
         <v>29230040137</v>
@@ -4280,12 +4336,12 @@
         <v>21</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B52" s="2">
         <v>29230040137</v>
@@ -4315,12 +4371,12 @@
         <v>21</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B53" s="2">
         <v>29230040137</v>
@@ -4350,12 +4406,12 @@
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B54" s="2">
         <v>29230040137</v>
@@ -4385,12 +4441,12 @@
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B55" s="2">
         <v>29230040137</v>
@@ -4420,12 +4476,12 @@
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B56" s="2">
         <v>29230040137</v>
@@ -4455,12 +4511,12 @@
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B57" s="2">
         <v>29230040137</v>
@@ -4490,12 +4546,12 @@
         <v>21</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B58" s="2">
         <v>29230040137</v>
@@ -4525,12 +4581,12 @@
         <v>21</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B59" s="2">
         <v>29230040137</v>
@@ -4560,12 +4616,12 @@
         <v>21</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B60" s="2">
         <v>29230040137</v>
@@ -4595,12 +4651,12 @@
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B61" s="2">
         <v>29230040137</v>
@@ -4632,7 +4688,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B62" s="2">
         <v>29230040137</v>
@@ -4662,12 +4718,12 @@
         <v>21</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B63" s="2">
         <v>29230040137</v>
@@ -4697,12 +4753,12 @@
         <v>21</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B64" s="2">
         <v>29230040137</v>
@@ -4732,12 +4788,12 @@
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B65" s="2">
         <v>29230040137</v>
@@ -4767,12 +4823,12 @@
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B66" s="2">
         <v>29230040137</v>
@@ -4802,12 +4858,12 @@
         <v>21</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B67" s="2">
         <v>29230040137</v>
@@ -4837,12 +4893,12 @@
         <v>21</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B68" s="2">
         <v>29230040137</v>
@@ -4872,12 +4928,12 @@
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B69" s="2">
         <v>29230040137</v>
@@ -4909,7 +4965,7 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B70" s="2">
         <v>29230040137</v>
@@ -4941,7 +4997,7 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B71" s="2">
         <v>29230040137</v>
@@ -4971,12 +5027,12 @@
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B72" s="2">
         <v>29230040137</v>
@@ -5006,12 +5062,12 @@
         <v>21</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B73" s="2">
         <v>29230040137</v>
@@ -5040,7 +5096,7 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B74" s="2">
         <v>29230040137</v>
@@ -5070,12 +5126,12 @@
         <v>21</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B75" s="2">
         <v>29230040137</v>
@@ -5108,12 +5164,12 @@
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B76" s="2">
         <v>29230040137</v>
@@ -5143,12 +5199,12 @@
         <v>21</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B77" s="2">
         <v>29230040137</v>
@@ -5181,12 +5237,12 @@
         <v>21</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B78" s="2">
         <v>29230040137</v>
@@ -5218,7 +5274,7 @@
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B79" s="2">
         <v>29230040137</v>
@@ -5248,12 +5304,12 @@
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B80" s="2">
         <v>29230040137</v>
@@ -5283,12 +5339,12 @@
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B81" s="2">
         <v>29230040137</v>
@@ -5318,12 +5374,12 @@
         <v>21</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B82" s="2">
         <v>29230040137</v>
@@ -5353,12 +5409,12 @@
         <v>21</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B83" s="2">
         <v>29230040137</v>
@@ -5388,12 +5444,12 @@
         <v>21</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B84" s="2">
         <v>29230040137</v>
@@ -5423,12 +5479,12 @@
         <v>21</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B85" s="2">
         <v>29230040137</v>
@@ -5458,12 +5514,12 @@
         <v>21</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B86" s="2">
         <v>29230040137</v>
@@ -5493,12 +5549,12 @@
         <v>21</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B87" s="2">
         <v>29230040137</v>
@@ -5528,12 +5584,12 @@
         <v>21</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B88" s="2">
         <v>29230040137</v>
@@ -5563,12 +5619,12 @@
         <v>21</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B89" s="2">
         <v>29230040137</v>
@@ -5598,12 +5654,12 @@
         <v>21</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B90" s="2">
         <v>29230040137</v>
@@ -5638,7 +5694,7 @@
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B91" s="2">
         <v>29230040137</v>
@@ -5668,12 +5724,12 @@
         <v>21</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B92" s="2">
         <v>29230040137</v>
@@ -5703,12 +5759,12 @@
         <v>21</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B93" s="2">
         <v>29230040137</v>
@@ -5738,12 +5794,12 @@
         <v>21</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B94" s="2">
         <v>29230040137</v>
@@ -5773,12 +5829,12 @@
         <v>21</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B95" s="2">
         <v>29230040137</v>
@@ -5808,12 +5864,12 @@
         <v>21</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B96" s="2">
         <v>29230040137</v>
@@ -5843,12 +5899,12 @@
         <v>21</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B97" s="2">
         <v>29230040137</v>
@@ -5878,12 +5934,12 @@
         <v>21</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B98" s="2">
         <v>29230040137</v>
@@ -5913,12 +5969,12 @@
         <v>21</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B99" s="2">
         <v>29230040137</v>
@@ -5947,7 +6003,7 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B100" s="2">
         <v>29230040137</v>
@@ -5979,7 +6035,7 @@
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B101" s="2">
         <v>29230040137</v>
@@ -6009,12 +6065,12 @@
         <v>21</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B102" s="2">
         <v>29230040137</v>
@@ -6044,12 +6100,12 @@
         <v>21</v>
       </c>
       <c r="O102" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B103" s="2">
         <v>29230040137</v>
@@ -6082,12 +6138,12 @@
         <v>21</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B104" s="2">
         <v>29230040137</v>
@@ -6117,12 +6173,12 @@
         <v>21</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B105" s="2">
         <v>29230040137</v>
@@ -6152,12 +6208,12 @@
         <v>21</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B106" s="2">
         <v>29230040137</v>
@@ -6187,12 +6243,12 @@
         <v>21</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B107" s="2">
         <v>29230040137</v>
@@ -6222,12 +6278,12 @@
         <v>21</v>
       </c>
       <c r="O107" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B108" s="2">
         <v>29230040137</v>
@@ -6260,12 +6316,12 @@
         <v>21</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B109" s="2">
         <v>29230040137</v>
@@ -6295,12 +6351,12 @@
         <v>21</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B110" s="2">
         <v>29230040137</v>
@@ -6330,12 +6386,12 @@
         <v>21</v>
       </c>
       <c r="O110" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B111" s="2">
         <v>29230040137</v>
@@ -6365,12 +6421,12 @@
         <v>21</v>
       </c>
       <c r="O111" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B112" s="2">
         <v>29230040137</v>
@@ -6400,12 +6456,12 @@
         <v>21</v>
       </c>
       <c r="O112" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B113" s="2">
         <v>29230040137</v>
@@ -6438,12 +6494,12 @@
         <v>21</v>
       </c>
       <c r="O113" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B114" s="2">
         <v>29230040137</v>
@@ -6473,12 +6529,12 @@
         <v>21</v>
       </c>
       <c r="O114" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B115" s="2">
         <v>29230040137</v>
@@ -6508,12 +6564,12 @@
         <v>21</v>
       </c>
       <c r="O115" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B116" s="2">
         <v>29230040137</v>
@@ -6543,12 +6599,12 @@
         <v>21</v>
       </c>
       <c r="O116" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B117" s="2">
         <v>29230040137</v>
@@ -6578,12 +6634,12 @@
         <v>21</v>
       </c>
       <c r="O117" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B118" s="2">
         <v>29230040137</v>
@@ -6613,12 +6669,12 @@
         <v>21</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B119" s="2">
         <v>29230040137</v>
@@ -6648,12 +6704,12 @@
         <v>21</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="120" spans="1:15">
       <c r="A120" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B120" s="2">
         <v>29230040137</v>
@@ -6683,12 +6739,12 @@
         <v>21</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="121" spans="1:15">
       <c r="A121" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B121" s="2">
         <v>29230040137</v>
@@ -6721,12 +6777,12 @@
         <v>21</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="122" spans="1:15">
       <c r="A122" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B122" s="2">
         <v>29230040137</v>
@@ -6756,12 +6812,12 @@
         <v>21</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123" spans="1:15">
       <c r="A123" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B123" s="2">
         <v>29230040137</v>
@@ -6791,12 +6847,12 @@
         <v>21</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="124" spans="1:15">
       <c r="A124" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B124" s="2">
         <v>29230040137</v>
@@ -6826,12 +6882,12 @@
         <v>21</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:15">
       <c r="A125" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B125" s="2">
         <v>29230040137</v>
@@ -6858,12 +6914,12 @@
         <v>0</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="126" spans="1:15">
       <c r="A126" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B126" s="2">
         <v>29230040137</v>
@@ -6892,7 +6948,7 @@
     </row>
     <row r="127" spans="1:15">
       <c r="A127" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B127" s="2">
         <v>29230040137</v>
@@ -6921,7 +6977,7 @@
     </row>
     <row r="128" spans="1:15">
       <c r="A128" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B128" s="2">
         <v>29230040137</v>
@@ -6954,12 +7010,12 @@
         <v>21</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="129" spans="1:15">
       <c r="A129" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B129" s="2">
         <v>29230040137</v>
@@ -6989,12 +7045,12 @@
         <v>21</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="130" spans="1:15">
       <c r="A130" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B130" s="2">
         <v>29230040137</v>
@@ -7024,12 +7080,12 @@
         <v>21</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="131" spans="1:15">
       <c r="A131" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B131" s="2">
         <v>29230040137</v>
@@ -7059,12 +7115,12 @@
         <v>21</v>
       </c>
       <c r="O131" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="132" spans="1:15">
       <c r="A132" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B132" s="2">
         <v>29230040137</v>
@@ -7096,7 +7152,7 @@
     </row>
     <row r="133" spans="1:15">
       <c r="A133" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B133" s="2">
         <v>29230040137</v>
@@ -7126,12 +7182,12 @@
         <v>21</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="134" spans="1:15">
       <c r="A134" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B134" s="2">
         <v>29230040137</v>
@@ -7161,12 +7217,12 @@
         <v>21</v>
       </c>
       <c r="O134" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="135" spans="1:15">
       <c r="A135" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B135" s="2">
         <v>29230040137</v>
@@ -7196,12 +7252,12 @@
         <v>21</v>
       </c>
       <c r="O135" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="136" spans="1:15">
       <c r="A136" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B136" s="2">
         <v>29230040137</v>
@@ -7231,12 +7287,12 @@
         <v>21</v>
       </c>
       <c r="O136" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="137" spans="1:15">
       <c r="A137" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B137" s="2">
         <v>29230040137</v>
@@ -7266,12 +7322,12 @@
         <v>21</v>
       </c>
       <c r="O137" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="138" spans="1:15">
       <c r="A138" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B138" s="2">
         <v>29230040137</v>
@@ -7301,12 +7357,12 @@
         <v>21</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="139" spans="1:15">
       <c r="A139" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="B139" s="2">
         <v>29230040137</v>
@@ -7336,12 +7392,12 @@
         <v>21</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="140" spans="1:15">
       <c r="A140" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B140" s="2">
         <v>29230040137</v>
@@ -7373,7 +7429,7 @@
     </row>
     <row r="141" spans="1:15">
       <c r="A141" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B141" s="2">
         <v>29230040137</v>
@@ -7400,12 +7456,12 @@
         <v>0</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="142" spans="1:15">
       <c r="A142" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B142" s="2">
         <v>29230040137</v>
@@ -7435,12 +7491,12 @@
         <v>21</v>
       </c>
       <c r="O142" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="143" spans="1:15">
       <c r="A143" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B143" s="2">
         <v>29230040137</v>
@@ -7470,12 +7526,12 @@
         <v>21</v>
       </c>
       <c r="O143" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="144" spans="1:15">
       <c r="A144" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B144" s="2">
         <v>29230040137</v>
@@ -7507,7 +7563,7 @@
     </row>
     <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B145" s="2">
         <v>29230040137</v>
@@ -7536,7 +7592,7 @@
     </row>
     <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B146" s="2">
         <v>29230040137</v>
@@ -7566,12 +7622,12 @@
         <v>21</v>
       </c>
       <c r="O146" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B147" s="2">
         <v>29230040137</v>
@@ -7606,7 +7662,7 @@
     </row>
     <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B148" s="2">
         <v>29230040137</v>
@@ -7636,12 +7692,12 @@
         <v>21</v>
       </c>
       <c r="O148" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B149" s="2">
         <v>29230040137</v>
@@ -7671,12 +7727,12 @@
         <v>21</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B150" s="2">
         <v>29230040137</v>
@@ -7706,12 +7762,12 @@
         <v>21</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B151" s="2">
         <v>29230040137</v>
@@ -7740,7 +7796,7 @@
     </row>
     <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B152" s="2">
         <v>29230040137</v>
@@ -7775,7 +7831,7 @@
     </row>
     <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B153" s="2">
         <v>29230040137</v>
@@ -7808,12 +7864,12 @@
         <v>21</v>
       </c>
       <c r="O153" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B154" s="2">
         <v>29230040137</v>
@@ -7848,7 +7904,7 @@
     </row>
     <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B155" s="2">
         <v>29230040137</v>
@@ -7878,12 +7934,12 @@
         <v>21</v>
       </c>
       <c r="O155" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B156" s="2">
         <v>29230040137</v>
@@ -7913,12 +7969,12 @@
         <v>21</v>
       </c>
       <c r="O156" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B157" s="2">
         <v>29230040137</v>
@@ -7948,12 +8004,12 @@
         <v>21</v>
       </c>
       <c r="O157" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B158" s="2">
         <v>29230040137</v>
@@ -7983,12 +8039,12 @@
         <v>21</v>
       </c>
       <c r="O158" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B159" s="2">
         <v>29230040137</v>
@@ -8018,12 +8074,12 @@
         <v>21</v>
       </c>
       <c r="O159" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B160" s="2">
         <v>29230040137</v>
@@ -8050,12 +8106,15 @@
         <v>0</v>
       </c>
       <c r="O160" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>240</v>
@@ -8082,12 +8141,15 @@
         <v>21</v>
       </c>
       <c r="O161" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B162" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>240</v>
@@ -8114,12 +8176,15 @@
         <v>21</v>
       </c>
       <c r="O162" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B163" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>240</v>
@@ -8146,12 +8211,15 @@
         <v>21</v>
       </c>
       <c r="O163" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>240</v>
@@ -8177,7 +8245,10 @@
     </row>
     <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>240</v>
@@ -8204,12 +8275,15 @@
         <v>21</v>
       </c>
       <c r="O165" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>240</v>
@@ -8235,7 +8309,10 @@
     </row>
     <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>240</v>
@@ -8262,12 +8339,15 @@
         <v>21</v>
       </c>
       <c r="O167" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>240</v>
@@ -8294,12 +8374,15 @@
         <v>21</v>
       </c>
       <c r="O168" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>240</v>
@@ -8331,7 +8414,10 @@
     </row>
     <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>240</v>
@@ -8358,12 +8444,15 @@
         <v>21</v>
       </c>
       <c r="O170" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>240</v>
@@ -8390,12 +8479,15 @@
         <v>21</v>
       </c>
       <c r="O171" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
+      </c>
+      <c r="B172" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>240</v>
@@ -8425,12 +8517,15 @@
         <v>21</v>
       </c>
       <c r="O172" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
+      </c>
+      <c r="B173" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>240</v>
@@ -8457,12 +8552,15 @@
         <v>21</v>
       </c>
       <c r="O173" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
+      </c>
+      <c r="B174" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>240</v>
@@ -8489,12 +8587,15 @@
         <v>21</v>
       </c>
       <c r="O174" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
+      </c>
+      <c r="B175" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>240</v>
@@ -8521,12 +8622,15 @@
         <v>21</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B176" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>240</v>
@@ -8553,12 +8657,15 @@
         <v>21</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B177" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>240</v>
@@ -8585,12 +8692,15 @@
         <v>21</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B178" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>240</v>
@@ -8620,12 +8730,15 @@
         <v>21</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="179" spans="1:15">
       <c r="A179" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B179" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>240</v>
@@ -8657,7 +8770,10 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B180" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>240</v>
@@ -8684,12 +8800,15 @@
         <v>21</v>
       </c>
       <c r="O180" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="181" spans="1:15">
       <c r="A181" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
+      </c>
+      <c r="B181" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>240</v>
@@ -8716,12 +8835,15 @@
         <v>21</v>
       </c>
       <c r="O181" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
+      </c>
+      <c r="B182" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>240</v>
@@ -8748,12 +8870,15 @@
         <v>21</v>
       </c>
       <c r="O182" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="183" spans="1:15">
       <c r="A183" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="B183" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>240</v>
@@ -8779,7 +8904,10 @@
     </row>
     <row r="184" spans="1:15">
       <c r="A184" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="B184" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>240</v>
@@ -8814,7 +8942,10 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="B185" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>240</v>
@@ -8841,12 +8972,15 @@
         <v>21</v>
       </c>
       <c r="O185" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="186" spans="1:15">
       <c r="A186" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
+      </c>
+      <c r="B186" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>240</v>
@@ -8873,12 +9007,15 @@
         <v>21</v>
       </c>
       <c r="O186" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
+      </c>
+      <c r="B187" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>240</v>
@@ -8905,12 +9042,15 @@
         <v>21</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="B188" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>240</v>
@@ -8937,12 +9077,15 @@
         <v>21</v>
       </c>
       <c r="O188" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="189" spans="1:15">
       <c r="A189" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
+      </c>
+      <c r="B189" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>240</v>
@@ -8974,7 +9117,10 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
+      </c>
+      <c r="B190" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>240</v>
@@ -9001,12 +9147,15 @@
         <v>21</v>
       </c>
       <c r="O190" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
+      </c>
+      <c r="B191" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>240</v>
@@ -9033,12 +9182,15 @@
         <v>21</v>
       </c>
       <c r="O191" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B192" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>240</v>
@@ -9065,12 +9217,15 @@
         <v>21</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="193" spans="1:15">
       <c r="A193" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B193" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>240</v>
@@ -9097,12 +9252,15 @@
         <v>21</v>
       </c>
       <c r="O193" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="194" spans="1:15">
       <c r="A194" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B194" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>240</v>
@@ -9134,7 +9292,10 @@
     </row>
     <row r="195" spans="1:15">
       <c r="A195" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B195" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>240</v>
@@ -9161,12 +9322,15 @@
         <v>21</v>
       </c>
       <c r="O195" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196" spans="1:15">
       <c r="A196" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B196" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>240</v>
@@ -9193,12 +9357,15 @@
         <v>21</v>
       </c>
       <c r="O196" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="197" spans="1:15">
       <c r="A197" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
+      </c>
+      <c r="B197" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>240</v>
@@ -9225,12 +9392,15 @@
         <v>21</v>
       </c>
       <c r="O197" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="198" spans="1:15">
       <c r="A198" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B198" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>240</v>
@@ -9257,12 +9427,15 @@
         <v>21</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="199" spans="1:15">
       <c r="A199" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
+      </c>
+      <c r="B199" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>240</v>
@@ -9289,12 +9462,15 @@
         <v>21</v>
       </c>
       <c r="O199" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="200" spans="1:15">
       <c r="A200" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
+      </c>
+      <c r="B200" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>240</v>
@@ -9321,12 +9497,15 @@
         <v>21</v>
       </c>
       <c r="O200" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="201" spans="1:15">
       <c r="A201" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
+      </c>
+      <c r="B201" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>240</v>
@@ -9353,12 +9532,15 @@
         <v>21</v>
       </c>
       <c r="O201" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="202" spans="1:15">
       <c r="A202" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B202" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>240</v>
@@ -9391,12 +9573,15 @@
         <v>21</v>
       </c>
       <c r="O202" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="203" spans="1:15">
       <c r="A203" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
+      </c>
+      <c r="B203" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>240</v>
@@ -9422,7 +9607,10 @@
     </row>
     <row r="204" spans="1:15">
       <c r="A204" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
+      </c>
+      <c r="B204" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>240</v>
@@ -9449,12 +9637,15 @@
         <v>21</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="205" spans="1:15">
       <c r="A205" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
+      </c>
+      <c r="B205" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>240</v>
@@ -9480,7 +9671,10 @@
     </row>
     <row r="206" spans="1:15">
       <c r="A206" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
+      </c>
+      <c r="B206" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>240</v>
@@ -9507,12 +9701,15 @@
         <v>21</v>
       </c>
       <c r="O206" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="207" spans="1:15">
       <c r="A207" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
+      </c>
+      <c r="B207" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>240</v>
@@ -9539,12 +9736,15 @@
         <v>21</v>
       </c>
       <c r="O207" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="208" spans="1:15">
       <c r="A208" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
+      </c>
+      <c r="B208" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>240</v>
@@ -9571,12 +9771,15 @@
         <v>21</v>
       </c>
       <c r="O208" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="209" spans="1:15">
       <c r="A209" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
+      </c>
+      <c r="B209" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>240</v>
@@ -9603,12 +9806,15 @@
         <v>21</v>
       </c>
       <c r="O209" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="210" spans="1:15">
       <c r="A210" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
+      </c>
+      <c r="B210" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>240</v>
@@ -9635,12 +9841,15 @@
         <v>21</v>
       </c>
       <c r="O210" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="211" spans="1:15">
       <c r="A211" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
+      </c>
+      <c r="B211" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>240</v>
@@ -9667,12 +9876,15 @@
         <v>21</v>
       </c>
       <c r="O211" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="212" spans="1:15">
       <c r="A212" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
+      </c>
+      <c r="B212" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>240</v>
@@ -9698,7 +9910,10 @@
     </row>
     <row r="213" spans="1:15">
       <c r="A213" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
+      </c>
+      <c r="B213" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>240</v>
@@ -9725,12 +9940,15 @@
         <v>21</v>
       </c>
       <c r="O213" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="214" spans="1:15">
       <c r="A214" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="B214" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>240</v>
@@ -9757,12 +9975,12 @@
         <v>21</v>
       </c>
       <c r="O214" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215" spans="1:15">
       <c r="A215" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B215" s="2">
         <v>29230040114</v>
@@ -9792,12 +10010,12 @@
         <v>21</v>
       </c>
       <c r="O215" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="216" spans="1:15">
       <c r="A216" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B216" s="2">
         <v>29230040114</v>
@@ -9830,12 +10048,12 @@
         <v>21</v>
       </c>
       <c r="O216" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="217" spans="1:15">
       <c r="A217" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B217" s="2">
         <v>29230040114</v>
@@ -9865,12 +10083,12 @@
         <v>21</v>
       </c>
       <c r="O217" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="218" spans="1:15">
       <c r="A218" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B218" s="2">
         <v>29230040114</v>
@@ -9900,12 +10118,12 @@
         <v>21</v>
       </c>
       <c r="O218" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="219" spans="1:15">
       <c r="A219" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B219" s="2">
         <v>29230040114</v>
@@ -9935,12 +10153,12 @@
         <v>21</v>
       </c>
       <c r="O219" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="220" spans="1:15">
       <c r="A220" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B220" s="2">
         <v>29230040114</v>
@@ -9975,7 +10193,7 @@
     </row>
     <row r="221" spans="1:15">
       <c r="A221" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B221" s="2">
         <v>29230040114</v>
@@ -10010,7 +10228,7 @@
     </row>
     <row r="222" spans="1:15">
       <c r="A222" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B222" s="2">
         <v>29230040114</v>
@@ -10040,12 +10258,12 @@
         <v>21</v>
       </c>
       <c r="O222" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="223" spans="1:15">
       <c r="A223" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B223" s="2">
         <v>29230040114</v>
@@ -10075,12 +10293,12 @@
         <v>21</v>
       </c>
       <c r="O223" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="224" spans="1:15">
       <c r="A224" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B224" s="2">
         <v>29230040114</v>
@@ -10110,12 +10328,12 @@
         <v>21</v>
       </c>
       <c r="O224" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="225" spans="1:15">
       <c r="A225" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B225" s="2">
         <v>29230040114</v>
@@ -10145,12 +10363,12 @@
         <v>21</v>
       </c>
       <c r="O225" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="226" spans="1:15">
       <c r="A226" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B226" s="2">
         <v>29230040114</v>
@@ -10180,12 +10398,12 @@
         <v>21</v>
       </c>
       <c r="O226" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="227" spans="1:15">
       <c r="A227" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B227" s="2">
         <v>29230040114</v>
@@ -10217,7 +10435,7 @@
     </row>
     <row r="228" spans="1:15">
       <c r="A228" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B228" s="2">
         <v>29230040114</v>
@@ -10247,12 +10465,12 @@
         <v>21</v>
       </c>
       <c r="O228" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="229" spans="1:15">
       <c r="A229" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B229" s="2">
         <v>29230040114</v>
@@ -10287,7 +10505,7 @@
     </row>
     <row r="230" spans="1:15">
       <c r="A230" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B230" s="2">
         <v>29230040114</v>
@@ -10314,12 +10532,12 @@
         <v>0</v>
       </c>
       <c r="O230" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="231" spans="1:15">
       <c r="A231" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B231" s="2">
         <v>29230040114</v>
@@ -10349,12 +10567,12 @@
         <v>21</v>
       </c>
       <c r="O231" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="232" spans="1:15">
       <c r="A232" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B232" s="2">
         <v>29230040114</v>
@@ -10386,7 +10604,7 @@
     </row>
     <row r="233" spans="1:15">
       <c r="A233" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B233" s="2">
         <v>29230040114</v>
@@ -10416,12 +10634,12 @@
         <v>21</v>
       </c>
       <c r="O233" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="234" spans="1:15">
       <c r="A234" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B234" s="2">
         <v>29230040114</v>
@@ -10451,12 +10669,12 @@
         <v>21</v>
       </c>
       <c r="O234" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="235" spans="1:15">
       <c r="A235" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B235" s="2">
         <v>29230040114</v>
@@ -10486,12 +10704,12 @@
         <v>21</v>
       </c>
       <c r="O235" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="236" spans="1:15">
       <c r="A236" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B236" s="2">
         <v>29230040114</v>
@@ -10521,12 +10739,12 @@
         <v>21</v>
       </c>
       <c r="O236" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="237" spans="1:15">
       <c r="A237" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B237" s="2">
         <v>29230040114</v>
@@ -10559,12 +10777,12 @@
         <v>21</v>
       </c>
       <c r="O237" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="238" spans="1:15">
       <c r="A238" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B238" s="2">
         <v>29230040114</v>
@@ -10599,7 +10817,7 @@
     </row>
     <row r="239" spans="1:15">
       <c r="A239" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B239" s="2">
         <v>29230040114</v>
@@ -10629,12 +10847,12 @@
         <v>21</v>
       </c>
       <c r="O239" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="240" spans="1:15">
       <c r="A240" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B240" s="2">
         <v>29230040114</v>
@@ -10664,12 +10882,12 @@
         <v>21</v>
       </c>
       <c r="O240" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="241" spans="1:15">
       <c r="A241" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B241" s="2">
         <v>29230040114</v>
@@ -10699,12 +10917,12 @@
         <v>21</v>
       </c>
       <c r="O241" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="242" spans="1:15">
       <c r="A242" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B242" s="2">
         <v>29230040114</v>
@@ -10731,12 +10949,12 @@
         <v>0</v>
       </c>
       <c r="O242" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="243" spans="1:15">
       <c r="A243" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B243" s="2">
         <v>29230040114</v>
@@ -10768,7 +10986,7 @@
     </row>
     <row r="244" spans="1:15">
       <c r="A244" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B244" s="2">
         <v>29230040114</v>
@@ -10803,7 +11021,7 @@
     </row>
     <row r="245" spans="1:15">
       <c r="A245" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B245" s="2">
         <v>29230040114</v>
@@ -10833,12 +11051,12 @@
         <v>21</v>
       </c>
       <c r="O245" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="246" spans="1:15">
       <c r="A246" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B246" s="2">
         <v>29230040114</v>
@@ -10868,12 +11086,12 @@
         <v>21</v>
       </c>
       <c r="O246" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="247" spans="1:15">
       <c r="A247" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B247" s="2">
         <v>29230040114</v>
@@ -10903,12 +11121,12 @@
         <v>21</v>
       </c>
       <c r="O247" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="248" spans="1:15">
       <c r="A248" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B248" s="2">
         <v>29230040114</v>
@@ -10943,7 +11161,7 @@
     </row>
     <row r="249" spans="1:15">
       <c r="A249" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B249" s="2">
         <v>29230040114</v>
@@ -10976,12 +11194,12 @@
         <v>21</v>
       </c>
       <c r="O249" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="250" spans="1:15">
       <c r="A250" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B250" s="2">
         <v>29230040114</v>
@@ -11011,12 +11229,12 @@
         <v>21</v>
       </c>
       <c r="O250" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="251" spans="1:15">
       <c r="A251" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B251" s="2">
         <v>29230040114</v>
@@ -11046,12 +11264,12 @@
         <v>21</v>
       </c>
       <c r="O251" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="252" spans="1:15">
       <c r="A252" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B252" s="2">
         <v>29230040114</v>
@@ -11081,12 +11299,12 @@
         <v>21</v>
       </c>
       <c r="O252" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="253" spans="1:15">
       <c r="A253" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B253" s="2">
         <v>29230040114</v>
@@ -11116,12 +11334,12 @@
         <v>21</v>
       </c>
       <c r="O253" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="254" spans="1:15">
       <c r="A254" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B254" s="2">
         <v>29230040114</v>
@@ -11151,12 +11369,12 @@
         <v>21</v>
       </c>
       <c r="O254" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="255" spans="1:15">
       <c r="A255" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B255" s="2">
         <v>29230040114</v>
@@ -11186,12 +11404,12 @@
         <v>21</v>
       </c>
       <c r="O255" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="256" spans="1:15">
       <c r="A256" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B256" s="2">
         <v>29230040114</v>
@@ -11221,12 +11439,12 @@
         <v>21</v>
       </c>
       <c r="O256" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="257" spans="1:15">
       <c r="A257" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B257" s="2">
         <v>29230040114</v>
@@ -11256,12 +11474,12 @@
         <v>21</v>
       </c>
       <c r="O257" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="258" spans="1:15">
       <c r="A258" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B258" s="2">
         <v>29230040114</v>
@@ -11291,12 +11509,12 @@
         <v>0</v>
       </c>
       <c r="O258" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="259" spans="1:15">
       <c r="A259" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B259" s="2">
         <v>29230040114</v>
@@ -11325,7 +11543,7 @@
     </row>
     <row r="260" spans="1:15">
       <c r="A260" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B260" s="2">
         <v>29230040114</v>
@@ -11355,12 +11573,12 @@
         <v>21</v>
       </c>
       <c r="O260" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:15">
       <c r="A261" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B261" s="2">
         <v>29230040114</v>
@@ -11390,12 +11608,12 @@
         <v>21</v>
       </c>
       <c r="O261" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="262" spans="1:15">
       <c r="A262" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B262" s="2">
         <v>29230040114</v>
@@ -11425,12 +11643,12 @@
         <v>21</v>
       </c>
       <c r="O262" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="263" spans="1:15">
       <c r="A263" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B263" s="2">
         <v>29230040114</v>
@@ -11460,12 +11678,12 @@
         <v>21</v>
       </c>
       <c r="O263" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="264" spans="1:15">
       <c r="A264" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B264" s="2">
         <v>29230040114</v>
@@ -11495,12 +11713,12 @@
         <v>21</v>
       </c>
       <c r="O264" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:15">
       <c r="A265" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B265" s="2">
         <v>29230040114</v>
@@ -11530,12 +11748,12 @@
         <v>21</v>
       </c>
       <c r="O265" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="266" spans="1:15">
       <c r="A266" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B266" s="2">
         <v>29230040114</v>
@@ -11565,12 +11783,12 @@
         <v>21</v>
       </c>
       <c r="O266" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="267" spans="1:15">
       <c r="A267" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B267" s="2">
         <v>29230040114</v>
@@ -11605,7 +11823,7 @@
     </row>
     <row r="268" spans="1:15">
       <c r="A268" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B268" s="2">
         <v>29230040114</v>
@@ -11640,7 +11858,7 @@
     </row>
     <row r="269" spans="1:15">
       <c r="A269" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B269" s="2">
         <v>29230040114</v>
@@ -11670,12 +11888,12 @@
         <v>21</v>
       </c>
       <c r="O269" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="270" spans="1:15">
       <c r="A270" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B270" s="2">
         <v>29230040114</v>
@@ -11708,12 +11926,12 @@
         <v>21</v>
       </c>
       <c r="O270" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="271" spans="1:15">
       <c r="A271" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B271" s="2">
         <v>29230040114</v>
@@ -11743,12 +11961,12 @@
         <v>21</v>
       </c>
       <c r="O271" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="272" spans="1:15">
       <c r="A272" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B272" s="2">
         <v>29230040114</v>
@@ -11778,12 +11996,12 @@
         <v>21</v>
       </c>
       <c r="O272" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="273" spans="1:15">
       <c r="A273" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B273" s="2">
         <v>29230040114</v>
@@ -11815,7 +12033,7 @@
     </row>
     <row r="274" spans="1:15">
       <c r="A274" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B274" s="2">
         <v>29230040114</v>
@@ -11845,12 +12063,12 @@
         <v>21</v>
       </c>
       <c r="O274" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="275" spans="1:15">
       <c r="A275" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B275" s="2">
         <v>29230040114</v>
@@ -11880,12 +12098,12 @@
         <v>21</v>
       </c>
       <c r="O275" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="276" spans="1:15">
       <c r="A276" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B276" s="2">
         <v>29230040114</v>
@@ -11915,12 +12133,12 @@
         <v>21</v>
       </c>
       <c r="O276" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="277" spans="1:15">
       <c r="A277" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B277" s="2">
         <v>29230040114</v>
@@ -11950,12 +12168,12 @@
         <v>21</v>
       </c>
       <c r="O277" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="278" spans="1:15">
       <c r="A278" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B278" s="2">
         <v>29230040114</v>
@@ -11987,7 +12205,7 @@
     </row>
     <row r="279" spans="1:15">
       <c r="A279" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B279" s="2">
         <v>29230040114</v>
@@ -12017,12 +12235,12 @@
         <v>21</v>
       </c>
       <c r="O279" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B280" s="2">
         <v>29230040114</v>
@@ -12060,7 +12278,7 @@
     </row>
     <row r="281" spans="1:15">
       <c r="A281" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B281" s="2">
         <v>29230040114</v>
@@ -12095,7 +12313,7 @@
     </row>
     <row r="282" spans="1:15">
       <c r="A282" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B282" s="2">
         <v>29230040114</v>
@@ -12131,12 +12349,12 @@
         <v>21</v>
       </c>
       <c r="O282" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="283" spans="1:15">
       <c r="A283" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B283" s="2">
         <v>29230040114</v>
@@ -12166,12 +12384,12 @@
         <v>21</v>
       </c>
       <c r="O283" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="284" spans="1:15">
       <c r="A284" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B284" s="2">
         <v>29230040114</v>
@@ -12201,12 +12419,12 @@
         <v>21</v>
       </c>
       <c r="O284" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="285" spans="1:15">
       <c r="A285" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B285" s="2">
         <v>29230040114</v>
@@ -12236,12 +12454,12 @@
         <v>21</v>
       </c>
       <c r="O285" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="286" spans="1:15">
       <c r="A286" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B286" s="2">
         <v>29230040114</v>
@@ -12271,12 +12489,12 @@
         <v>21</v>
       </c>
       <c r="O286" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="287" spans="1:15">
       <c r="A287" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B287" s="2">
         <v>29230040114</v>
@@ -12306,12 +12524,12 @@
         <v>21</v>
       </c>
       <c r="O287" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="288" spans="1:15">
       <c r="A288" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B288" s="2">
         <v>29230040114</v>
@@ -12341,12 +12559,12 @@
         <v>21</v>
       </c>
       <c r="O288" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="289" spans="1:15">
       <c r="A289" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B289" s="2">
         <v>29230040114</v>
@@ -12375,7 +12593,7 @@
     </row>
     <row r="290" spans="1:15">
       <c r="A290" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B290" s="2">
         <v>29230040114</v>
@@ -12405,12 +12623,12 @@
         <v>21</v>
       </c>
       <c r="O290" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="291" spans="1:15">
       <c r="A291" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B291" s="2">
         <v>29230040114</v>
@@ -12440,12 +12658,12 @@
         <v>21</v>
       </c>
       <c r="O291" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="292" spans="1:15">
       <c r="A292" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B292" s="2">
         <v>29230040114</v>
@@ -12478,12 +12696,12 @@
         <v>21</v>
       </c>
       <c r="O292" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="293" spans="1:15">
       <c r="A293" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B293" s="2">
         <v>29230040114</v>
@@ -12515,7 +12733,7 @@
     </row>
     <row r="294" spans="1:15">
       <c r="A294" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B294" s="2">
         <v>29230040114</v>
@@ -12545,12 +12763,12 @@
         <v>21</v>
       </c>
       <c r="O294" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="295" spans="1:15">
       <c r="A295" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B295" s="2">
         <v>29230040114</v>
@@ -12579,7 +12797,7 @@
     </row>
     <row r="296" spans="1:15">
       <c r="A296" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B296" s="2">
         <v>29230040114</v>
@@ -12609,12 +12827,12 @@
         <v>21</v>
       </c>
       <c r="O296" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="297" spans="1:15">
       <c r="A297" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B297" s="2">
         <v>29230040114</v>
@@ -12644,12 +12862,12 @@
         <v>21</v>
       </c>
       <c r="O297" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="298" spans="1:15">
       <c r="A298" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B298" s="2">
         <v>29230040114</v>
@@ -12679,12 +12897,12 @@
         <v>21</v>
       </c>
       <c r="O298" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="299" spans="1:15">
       <c r="A299" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B299" s="2">
         <v>29230040114</v>
@@ -12714,12 +12932,12 @@
         <v>21</v>
       </c>
       <c r="O299" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="300" spans="1:15">
       <c r="A300" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B300" s="2">
         <v>29230040114</v>
@@ -12749,12 +12967,12 @@
         <v>21</v>
       </c>
       <c r="O300" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="301" spans="1:15">
       <c r="A301" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B301" s="2">
         <v>29230040114</v>
@@ -12784,12 +13002,12 @@
         <v>21</v>
       </c>
       <c r="O301" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="302" spans="1:15">
       <c r="A302" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B302" s="2">
         <v>29230040114</v>
@@ -12819,12 +13037,12 @@
         <v>21</v>
       </c>
       <c r="O302" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="303" spans="1:15">
       <c r="A303" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B303" s="2">
         <v>29230040114</v>
@@ -12854,12 +13072,12 @@
         <v>21</v>
       </c>
       <c r="O303" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="304" spans="1:15">
       <c r="A304" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B304" s="2">
         <v>29230040114</v>
@@ -12889,12 +13107,12 @@
         <v>21</v>
       </c>
       <c r="O304" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="305" spans="1:15">
       <c r="A305" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B305" s="2">
         <v>29230040114</v>
@@ -12924,12 +13142,12 @@
         <v>21</v>
       </c>
       <c r="O305" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="306" spans="1:15">
       <c r="A306" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B306" s="2">
         <v>29230040114</v>
@@ -12965,12 +13183,12 @@
         <v>21</v>
       </c>
       <c r="O306" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="307" spans="1:15">
       <c r="A307" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B307" s="2">
         <v>29230040114</v>
@@ -13000,12 +13218,12 @@
         <v>21</v>
       </c>
       <c r="O307" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="308" spans="1:15">
       <c r="A308" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B308" s="2">
         <v>29230040114</v>
@@ -13035,12 +13253,12 @@
         <v>21</v>
       </c>
       <c r="O308" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="309" spans="1:15">
       <c r="A309" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B309" s="2">
         <v>29230040114</v>
@@ -13070,12 +13288,12 @@
         <v>21</v>
       </c>
       <c r="O309" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="310" spans="1:15">
       <c r="A310" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B310" s="2">
         <v>29230040114</v>
@@ -13110,7 +13328,7 @@
     </row>
     <row r="311" spans="1:15">
       <c r="A311" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B311" s="2">
         <v>29230040114</v>
@@ -13140,12 +13358,12 @@
         <v>21</v>
       </c>
       <c r="O311" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="312" spans="1:15">
       <c r="A312" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B312" s="2">
         <v>29230040114</v>
@@ -13175,12 +13393,12 @@
         <v>21</v>
       </c>
       <c r="O312" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="313" spans="1:15">
       <c r="A313" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="B313" s="2">
         <v>29230040114</v>
@@ -13215,7 +13433,7 @@
     </row>
     <row r="314" spans="1:15">
       <c r="A314" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B314" s="2">
         <v>29230040114</v>
@@ -13245,12 +13463,12 @@
         <v>21</v>
       </c>
       <c r="O314" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="315" spans="1:15">
       <c r="A315" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B315" s="2">
         <v>29230040114</v>
@@ -13280,12 +13498,12 @@
         <v>21</v>
       </c>
       <c r="O315" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="316" spans="1:15">
       <c r="A316" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B316" s="2">
         <v>29230040114</v>
@@ -13315,12 +13533,12 @@
         <v>21</v>
       </c>
       <c r="O316" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="317" spans="1:15">
       <c r="A317" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B317" s="2">
         <v>29230040114</v>
@@ -13350,12 +13568,12 @@
         <v>21</v>
       </c>
       <c r="O317" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="318" spans="1:15">
       <c r="A318" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B318" s="2">
         <v>29230040114</v>
@@ -13385,12 +13603,12 @@
         <v>21</v>
       </c>
       <c r="O318" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="319" spans="1:15">
       <c r="A319" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B319" s="2">
         <v>29230040114</v>
@@ -13420,12 +13638,12 @@
         <v>21</v>
       </c>
       <c r="O319" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="320" spans="1:15">
       <c r="A320" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B320" s="2">
         <v>29230040114</v>
@@ -13455,12 +13673,12 @@
         <v>21</v>
       </c>
       <c r="O320" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="321" spans="1:15">
       <c r="A321" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B321" s="2">
         <v>29230040114</v>
@@ -13490,12 +13708,12 @@
         <v>21</v>
       </c>
       <c r="O321" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="322" spans="1:15">
       <c r="A322" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B322" s="2">
         <v>29230040114</v>
@@ -13525,12 +13743,12 @@
         <v>21</v>
       </c>
       <c r="O322" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="323" spans="1:15">
       <c r="A323" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B323" s="2">
         <v>29230040114</v>
@@ -13560,12 +13778,12 @@
         <v>21</v>
       </c>
       <c r="O323" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="324" spans="1:15">
       <c r="A324" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B324" s="2">
         <v>29230040114</v>
@@ -13597,7 +13815,7 @@
     </row>
     <row r="325" spans="1:15">
       <c r="A325" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B325" s="2">
         <v>29230040114</v>
@@ -13627,12 +13845,12 @@
         <v>21</v>
       </c>
       <c r="O325" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="326" spans="1:15">
       <c r="A326" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B326" s="2">
         <v>29230040114</v>
@@ -13667,7 +13885,7 @@
     </row>
     <row r="327" spans="1:15">
       <c r="A327" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B327" s="2">
         <v>29230040114</v>
@@ -13700,12 +13918,12 @@
         <v>0</v>
       </c>
       <c r="O327" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="328" spans="1:15">
       <c r="A328" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B328" s="2">
         <v>29230040114</v>
@@ -13735,12 +13953,12 @@
         <v>21</v>
       </c>
       <c r="O328" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="329" spans="1:15">
       <c r="A329" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B329" s="2">
         <v>29230040114</v>
@@ -13776,12 +13994,12 @@
         <v>21</v>
       </c>
       <c r="O329" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="330" spans="1:15">
       <c r="A330" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B330" s="2">
         <v>29230040114</v>
@@ -13817,12 +14035,12 @@
         <v>21</v>
       </c>
       <c r="O330" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="331" spans="1:15">
       <c r="A331" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B331" s="2">
         <v>29230040114</v>
@@ -13855,12 +14073,12 @@
         <v>21</v>
       </c>
       <c r="O331" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="332" spans="1:15">
       <c r="A332" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B332" s="2">
         <v>29230040114</v>
@@ -13890,7 +14108,7 @@
         <v>21</v>
       </c>
       <c r="O332" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -13908,9 +14126,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CH11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BL1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="BR9" sqref="BR9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
@@ -13922,262 +14140,262 @@
   <sheetData>
     <row r="1" spans="1:86" s="20" customFormat="1" ht="45">
       <c r="A1" s="19" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>476</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>526</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>527</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>480</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>480</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>529</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>530</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="19" t="s">
+      <c r="N1" s="19" t="s">
+        <v>453</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="T1" s="19" t="s">
         <v>482</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="U1" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>462</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB1" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="J1" s="19" t="s">
-        <v>453</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="L1" s="19" t="s">
+      <c r="AC1" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="M1" s="19" t="s">
-        <v>455</v>
-      </c>
-      <c r="N1" s="19" t="s">
-        <v>456</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q1" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="T1" s="19" t="s">
+      <c r="AD1" s="19" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG1" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH1" s="19" t="s">
+        <v>468</v>
+      </c>
+      <c r="AI1" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="AK1" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="AL1" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="AM1" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="U1" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>462</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="Y1" s="19" t="s">
-        <v>464</v>
-      </c>
-      <c r="Z1" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA1" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="AB1" s="19" t="s">
+      <c r="AN1" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="AC1" s="19" t="s">
+      <c r="AO1" s="19" t="s">
         <v>487</v>
       </c>
-      <c r="AD1" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE1" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF1" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="AH1" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="AI1" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="AJ1" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="AK1" s="19" t="s">
-        <v>474</v>
-      </c>
-      <c r="AL1" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="AM1" s="19" t="s">
+      <c r="AP1" s="19" t="s">
         <v>488</v>
       </c>
-      <c r="AN1" s="19" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>489</v>
       </c>
-      <c r="AO1" s="19" t="s">
+      <c r="AR1" s="19" t="s">
         <v>490</v>
       </c>
-      <c r="AP1" s="19" t="s">
+      <c r="AS1" s="19" t="s">
         <v>491</v>
       </c>
-      <c r="AQ1" s="19" t="s">
+      <c r="AT1" s="19" t="s">
         <v>492</v>
       </c>
-      <c r="AR1" s="19" t="s">
+      <c r="AU1" s="19" t="s">
         <v>493</v>
       </c>
-      <c r="AS1" s="19" t="s">
+      <c r="AV1" s="19" t="s">
         <v>494</v>
       </c>
-      <c r="AT1" s="19" t="s">
+      <c r="AW1" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="AU1" s="19" t="s">
+      <c r="AX1" s="19" t="s">
         <v>496</v>
       </c>
-      <c r="AV1" s="19" t="s">
+      <c r="AY1" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="AW1" s="19" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>498</v>
       </c>
-      <c r="AX1" s="19" t="s">
+      <c r="BA1" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="AY1" s="19" t="s">
+      <c r="BB1" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="AZ1" s="19" t="s">
+      <c r="BC1" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="BA1" s="19" t="s">
+      <c r="BD1" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="BB1" s="19" t="s">
+      <c r="BE1" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="BC1" s="19" t="s">
+      <c r="BF1" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="BD1" s="19" t="s">
+      <c r="BG1" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="BE1" s="19" t="s">
+      <c r="BH1" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="BF1" s="19" t="s">
+      <c r="BI1" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="BG1" s="19" t="s">
+      <c r="BJ1" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="BH1" s="19" t="s">
+      <c r="BK1" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="BI1" s="19" t="s">
+      <c r="BL1" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="BJ1" s="19" t="s">
+      <c r="BM1" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="BK1" s="19" t="s">
+      <c r="BN1" s="19" t="s">
         <v>512</v>
       </c>
-      <c r="BL1" s="19" t="s">
+      <c r="BO1" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="BM1" s="19" t="s">
+      <c r="BP1" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="BN1" s="19" t="s">
+      <c r="BQ1" s="19" t="s">
         <v>515</v>
       </c>
-      <c r="BO1" s="19" t="s">
+      <c r="BR1" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="BP1" s="19" t="s">
+      <c r="BS1" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="BQ1" s="19" t="s">
+      <c r="BT1" s="19" t="s">
         <v>518</v>
-      </c>
-      <c r="BR1" s="19" t="s">
-        <v>519</v>
-      </c>
-      <c r="BS1" s="19" t="s">
-        <v>520</v>
-      </c>
-      <c r="BT1" s="19" t="s">
-        <v>521</v>
       </c>
       <c r="BU1" s="19" t="s">
         <v>221</v>
       </c>
       <c r="BV1" s="19" t="s">
+        <v>519</v>
+      </c>
+      <c r="BW1" s="19" t="s">
+        <v>520</v>
+      </c>
+      <c r="BX1" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="BY1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="BZ1" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="CA1" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="CB1" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="CC1" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="BW1" s="19" t="s">
+      <c r="CD1" s="19" t="s">
+        <v>432</v>
+      </c>
+      <c r="CE1" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="BX1" s="19" t="s">
+      <c r="CF1" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="BY1" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="BZ1" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="CA1" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="CB1" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="CC1" s="19" t="s">
+      <c r="CG1" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="CH1" s="19" t="s">
         <v>525</v>
-      </c>
-      <c r="CD1" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="CE1" s="19" t="s">
-        <v>526</v>
-      </c>
-      <c r="CF1" s="19" t="s">
-        <v>527</v>
-      </c>
-      <c r="CG1" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="CH1" s="19" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:86">
@@ -14191,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>41</v>
@@ -14203,10 +14421,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>0</v>
@@ -14215,7 +14433,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>0</v>
@@ -14263,10 +14481,10 @@
         <v>0</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="AD2" s="10" t="s">
         <v>0</v>
@@ -14279,7 +14497,7 @@
       </c>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AI2" s="10" t="s">
         <v>0</v>
@@ -14350,29 +14568,29 @@
         <v>0</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>0</v>
@@ -14420,10 +14638,10 @@
         <v>0</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="AC3" s="10" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="AD3" s="10" t="s">
         <v>0</v>
@@ -14435,7 +14653,7 @@
         <v>0</v>
       </c>
       <c r="AG3" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="AH3" s="10" t="s">
         <v>0</v>
@@ -14521,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="I4" s="10" t="s">
         <v>14</v>
@@ -14533,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>0</v>
@@ -14581,10 +14799,10 @@
         <v>0</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="AC4" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="AD4" s="10" t="s">
         <v>0</v>
@@ -14668,19 +14886,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>17</v>
@@ -14692,7 +14910,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>0</v>
@@ -14740,10 +14958,10 @@
         <v>0</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="AC5" s="10" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="AD5" s="10" t="s">
         <v>0</v>
@@ -14839,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>103</v>
@@ -14851,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>0</v>
@@ -14899,10 +15117,10 @@
         <v>0</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AD6" s="10" t="s">
         <v>0</v>
@@ -14914,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="10" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="AH6" s="10" t="s">
         <v>0</v>
@@ -14988,19 +15206,19 @@
         <v>0</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>0</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>109</v>
@@ -15012,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>0</v>
@@ -15060,10 +15278,10 @@
         <v>0</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="AC7" s="10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="AD7" s="10" t="s">
         <v>0</v>
@@ -15140,8 +15358,8 @@
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>0</v>
+      <c r="B8" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>240</v>
@@ -15159,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>31</v>
@@ -15171,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>0</v>
@@ -15219,10 +15437,10 @@
         <v>0</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AC8" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>0</v>
@@ -15278,14 +15496,10 @@
       <c r="BO8" s="11"/>
       <c r="BP8" s="11"/>
       <c r="BQ8" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="BR8" s="13">
-        <v>29230040116</v>
-      </c>
-      <c r="BS8" s="11" t="s">
-        <v>417</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="BR8" s="13"/>
+      <c r="BS8" s="11"/>
       <c r="BT8" s="16">
         <v>17</v>
       </c>
@@ -15330,8 +15544,8 @@
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>0</v>
+      <c r="B9" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>240</v>
@@ -15349,7 +15563,7 @@
         <v>0</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>31</v>
@@ -15361,7 +15575,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>0</v>
@@ -15409,10 +15623,10 @@
         <v>0</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="AC9" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="AD9" s="8" t="s">
         <v>0</v>
@@ -15468,14 +15682,10 @@
       <c r="BO9" s="11"/>
       <c r="BP9" s="11"/>
       <c r="BQ9" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="BR9" s="16">
-        <v>29230040110</v>
-      </c>
-      <c r="BS9" s="11" t="s">
-        <v>419</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="BR9" s="16"/>
+      <c r="BS9" s="11"/>
       <c r="BT9" s="16">
         <v>18</v>
       </c>
@@ -15510,7 +15720,7 @@
         <v>21</v>
       </c>
       <c r="CE9" s="8" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="CF9" s="11" t="s">
         <v>0</v>
@@ -15526,8 +15736,8 @@
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>0</v>
+      <c r="B10" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>240</v>
@@ -15545,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>60</v>
@@ -15557,7 +15767,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>0</v>
@@ -15605,10 +15815,10 @@
         <v>0</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AD10" s="8" t="s">
         <v>0</v>
@@ -15664,12 +15874,10 @@
       <c r="BO10" s="11"/>
       <c r="BP10" s="11"/>
       <c r="BQ10" s="8" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="BR10" s="14"/>
-      <c r="BS10" s="11" t="s">
-        <v>418</v>
-      </c>
+      <c r="BS10" s="11"/>
       <c r="BT10" s="16">
         <v>7</v>
       </c>
@@ -15704,7 +15912,7 @@
         <v>21</v>
       </c>
       <c r="CE10" s="8" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="CF10" s="11" t="s">
         <v>0</v>
@@ -15720,8 +15928,8 @@
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>0</v>
+      <c r="B11" s="23" t="s">
+        <v>658</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>240</v>
@@ -15739,7 +15947,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>40</v>
@@ -15751,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>0</v>
@@ -15799,10 +16007,10 @@
         <v>0</v>
       </c>
       <c r="AB11" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AC11" s="10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="AD11" s="10" t="s">
         <v>0</v>
@@ -15815,7 +16023,7 @@
       </c>
       <c r="AG11" s="10"/>
       <c r="AH11" s="10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AI11" s="10" t="s">
         <v>0</v>
